--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 20C/PRUEBA_TEMPERATURA_23_20C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 20C/PRUEBA_TEMPERATURA_23_20C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,136 +73,106 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-09 03:27:23</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:28:23</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:29:24</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:30:25</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:31:26</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:32:27</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:33:28</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:34:29</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:35:30</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:36:31</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:37:32</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:38:32</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:39:33</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:40:34</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:41:35</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:42:36</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:43:37</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:44:38</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:45:39</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:46:40</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:47:41</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:48:42</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:49:42</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:50:43</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:51:44</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:52:45</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:53:46</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:54:47</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:55:48</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:56:49</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:57:50</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:58:51</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:59:52</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:00:52</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:01:53</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:02:54</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:03:55</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:04:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:05:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:06:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:07:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:09:00</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:10:01</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:11:02</t>
+    <t>2023-12-12 00:39:11</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:40:13</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:41:15</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:42:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:43:20</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:44:23</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:45:25</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:46:27</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:47:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:48:32</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:49:35</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:50:37</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:51:40</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:52:42</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:53:44</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:54:47</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:55:49</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:56:52</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:57:54</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:58:57</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:59:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:01:01</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:02:04</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:03:06</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:04:09</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:05:11</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:06:14</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:07:16</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:08:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:09:21</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:10:23</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:11:26</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:12:28</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:13:30</t>
   </si>
 </sst>
 </file>
@@ -869,141 +839,111 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$45</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>25.673076923076898</c:v>
+                  <c:v>25.8041958041958</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.017482517482499</c:v>
+                  <c:v>25.1486013986014</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>24.886363636363601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.837412587412501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.919580419580399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.788461538461501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.263986013985999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.0017482517482</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.0017482517482</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.0017482517482</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.870629370629299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.870629370629299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.608391608391599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.132867132867101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.870629370629299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.608391608391599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.477272727272702</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.739510489510501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.132867132867101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.739510489510501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.608391608391599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.477272727272702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.477272727272702</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.608391608391599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.739510489510501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.739510489510501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.870629370629299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.477272727272702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.870629370629299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.477272727272702</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.477272727272702</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.477272727272702</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20.9527972027972</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.215034965034899</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.215034965034899</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.821678321678299</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.9527972027972</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.083916083916101</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.477272727272702</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21.215034965034899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>21.083916083916101</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.821678321678299</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.9527972027972</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.821678321678299</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.821678321678299</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21.083916083916101</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20.9527972027972</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21.215034965034899</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>21.083916083916101</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>21.215034965034899</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21.346153846153801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,7 +970,6 @@
         <c:axId val="465778296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1261,37 +1200,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>21.346153846153801</c:v>
+                  <c:v>22.132867132867101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.346153846153801</c:v>
+                  <c:v>21.739510489510501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.346153846153801</c:v>
+                  <c:v>21.608391608391599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.346153846153801</c:v>
+                  <c:v>21.477272727272702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.9527972027972</c:v>
+                  <c:v>21.477272727272702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.215034965034899</c:v>
+                  <c:v>21.608391608391599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.083916083916101</c:v>
+                  <c:v>21.739510489510501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.346153846153801</c:v>
+                  <c:v>21.739510489510501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.608391608391599</c:v>
+                  <c:v>21.870629370629299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.215034965034899</c:v>
+                  <c:v>21.477272727272702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.346153846153801</c:v>
+                  <c:v>21.870629370629299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,10 +1327,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21.28655435473614</c:v>
+                  <c:v>21.703750794659864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.28655435473614</c:v>
+                  <c:v>21.703750794659864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3113,7 +3052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -3162,17 +3101,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.673076923076898</v>
+        <v>25.8041958041958</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>9.1550925935734995E-3</v>
+        <v>1.0104166663950309E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3189,14 +3128,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.017482517482499</v>
+        <v>25.1486013986014</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)</f>
-        <v>44</v>
+        <f>COUNT(E:E)-2</f>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3213,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.0506993006993</v>
+        <v>24.886363636363601</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3230,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.919580419580399</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3247,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.263986013985999</v>
+        <v>22.919580419580399</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3264,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.132867132867101</v>
+        <v>22.788461538461501</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3281,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>22.0017482517482</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3298,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.870629370629299</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3315,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.477272727272702</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3332,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.608391608391599</v>
+        <v>22.263986013985999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3349,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.477272727272702</v>
+        <v>22.0017482517482</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3366,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.870629370629299</v>
+        <v>22.0017482517482</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3383,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.477272727272702</v>
+        <v>22.0017482517482</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3400,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.9527972027972</v>
+        <v>21.870629370629299</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3417,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>21.346153846153801</v>
+        <v>21.870629370629299</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3434,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.215034965034899</v>
+        <v>21.608391608391599</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3451,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.346153846153801</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3468,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.215034965034899</v>
+        <v>21.870629370629299</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3485,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.821678321678299</v>
+        <v>21.608391608391599</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3502,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.9527972027972</v>
+        <v>21.477272727272702</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3519,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.346153846153801</v>
+        <v>21.739510489510501</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3536,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.083916083916101</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3553,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.346153846153801</v>
+        <v>21.739510489510501</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3570,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.477272727272702</v>
+        <v>21.608391608391599</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3587,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>21.215034965034899</v>
+        <v>21.477272727272702</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3604,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>21.083916083916101</v>
+        <v>21.477272727272702</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3621,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>20.821678321678299</v>
+        <v>21.608391608391599</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3638,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>20.9527972027972</v>
+        <v>21.739510489510501</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3655,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>21.346153846153801</v>
+        <v>21.739510489510501</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3672,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>20.821678321678299</v>
+        <v>21.870629370629299</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3689,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>20.821678321678299</v>
+        <v>21.477272727272702</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3706,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>21.346153846153801</v>
+        <v>21.870629370629299</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3723,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>21.083916083916101</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3740,177 +3679,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>21.346153846153801</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>23</v>
-      </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>21.346153846153801</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>23</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>21.346153846153801</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>23</v>
-      </c>
-      <c r="B38">
-        <v>20</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>21.346153846153801</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>23</v>
-      </c>
-      <c r="B39">
-        <v>20</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>20.9527972027972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>23</v>
-      </c>
-      <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>21.215034965034899</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>23</v>
-      </c>
-      <c r="B41">
-        <v>20</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>21.083916083916101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>23</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>21.346153846153801</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>23</v>
-      </c>
-      <c r="B43">
-        <v>20</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>21.608391608391599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>23</v>
-      </c>
-      <c r="B44">
-        <v>20</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>21.215034965034899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>20</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>21.346153846153801</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
   </sheetData>
@@ -3924,7 +3693,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3949,45 +3718,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:00:52</v>
+        <v>2023-12-12 01:01:01</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>21.346153846153801</v>
+        <v>22.132867132867101</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>21.28655435473614</v>
+        <v>21.703750794659864</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:01:53</v>
+        <v>2023-12-12 01:02:04</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>21.346153846153801</v>
+        <v>21.739510489510501</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>21.28655435473614</v>
+        <v>21.703750794659864</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:02:54</v>
+        <v>2023-12-12 01:03:06</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>21.346153846153801</v>
+        <v>21.608391608391599</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3996,35 +3765,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:03:55</v>
+        <v>2023-12-12 01:04:09</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>21.346153846153801</v>
+        <v>21.477272727272702</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.16958123881542894</v>
+        <v>0.20389647155180399</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:04:56</v>
+        <v>2023-12-12 01:05:11</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>20.9527972027972</v>
+        <v>21.477272727272702</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:05:57</v>
+        <v>2023-12-12 01:06:14</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>21.215034965034899</v>
+        <v>21.608391608391599</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -4033,36 +3802,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:06:58</v>
+        <v>2023-12-12 01:07:16</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>21.083916083916101</v>
+        <v>21.739510489510501</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>21.608391608391599</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:07:59</v>
+        <v>2023-12-12 01:08:18</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>21.346153846153801</v>
+        <v>21.739510489510501</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:09:00</v>
+        <v>2023-12-12 01:09:21</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>21.608391608391599</v>
+        <v>21.870629370629299</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -4071,25 +3840,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:10:01</v>
+        <v>2023-12-12 01:10:23</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>21.215034965034899</v>
+        <v>21.477272727272702</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>20.9527972027972</v>
+        <v>21.477272727272702</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:11:02</v>
+        <v>2023-12-12 01:11:26</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>21.346153846153801</v>
+        <v>21.870629370629299</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -4123,8 +3892,8 @@
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17">
-        <f>E14+0.4</f>
-        <v>20.399999999999999</v>
+        <f>E14+0.5</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
@@ -4134,8 +3903,8 @@
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20">
-        <f>E14-0.4</f>
-        <v>19.600000000000001</v>
+        <f>E14-0.5</f>
+        <v>19.5</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
